--- a/Config/test.xlsx
+++ b/Config/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tabtoy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tabtoy\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765BADA4-7335-4BD8-B4A8-CD302C51FE2D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BD2B59-C0C0-4FD8-9C90-58636405DB18}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -180,9 +180,6 @@
     <t>int32</t>
   </si>
   <si>
-    <t>RepeatCheck:true MakeIndex:true</t>
-  </si>
-  <si>
     <t>MakeIndex:true 自定义tag: "支持go的struct tag"</t>
   </si>
   <si>
@@ -538,6 +535,10 @@
   </si>
   <si>
     <t>ArrayExFloat</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用表 RepeatCheck:true MakeIndex:true</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1134,9 +1135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1159,22 +1158,22 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -1182,20 +1181,20 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>4</v>
@@ -1204,102 +1203,102 @@
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K2" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="R2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
@@ -1310,13 +1309,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>3</v>
@@ -1334,34 +1333,34 @@
         <v>6</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
@@ -1369,10 +1368,10 @@
         <v>100</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="E5" s="2">
         <v>0.1</v>
@@ -1382,40 +1381,40 @@
         <v>10</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M5" s="2">
         <v>1</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
@@ -1423,7 +1422,7 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2">
         <v>0.5</v>
@@ -1439,19 +1438,19 @@
         <v>2</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.15">
@@ -1459,7 +1458,7 @@
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2">
         <v>0.3</v>
@@ -1469,13 +1468,13 @@
         <v>3</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="33" x14ac:dyDescent="0.15">
@@ -1483,7 +1482,7 @@
         <v>103</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -1492,13 +1491,13 @@
       </c>
       <c r="F8" s="4"/>
       <c r="M8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
@@ -1506,7 +1505,7 @@
         <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="2">
         <v>0.7</v>
@@ -1516,7 +1515,7 @@
         <v>5</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.15">
@@ -1536,8 +1535,8 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/Config/test.xlsx
+++ b/Config/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tabtoy\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BD2B59-C0C0-4FD8-9C90-58636405DB18}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF65A24-2671-4047-ADB2-C470E7E9869C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -538,7 +538,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>测试用表 RepeatCheck:true MakeIndex:true</t>
+    <t>C=lua S=none</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1139,7 +1139,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="35.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="20.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="19.5" style="2" customWidth="1"/>
     <col min="7" max="8" width="15.75" style="2" customWidth="1"/>
@@ -1240,7 +1240,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="3" t="s">

--- a/Config/test.xlsx
+++ b/Config/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tabtoy\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF65A24-2671-4047-ADB2-C470E7E9869C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D7EB07-5BAC-4D3C-86E1-96C1687B9552}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1815" windowWidth="25185" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="84">
   <si>
     <t>ID</t>
   </si>
@@ -172,9 +172,6 @@
   </si>
   <si>
     <t>AttackParam</t>
-  </si>
-  <si>
-    <t>string</t>
   </si>
   <si>
     <t>int32</t>
@@ -538,7 +535,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>C=lua S=none</t>
+    <t>string</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用表格 C= S=lua</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1161,19 +1162,19 @@
         <v>83</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -1181,20 +1182,20 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>4</v>
@@ -1203,102 +1204,102 @@
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="K2" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="R2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
@@ -1309,13 +1310,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>3</v>
@@ -1333,34 +1334,34 @@
         <v>6</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
@@ -1368,10 +1369,10 @@
         <v>100</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="E5" s="2">
         <v>0.1</v>
@@ -1381,40 +1382,40 @@
         <v>10</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M5" s="2">
         <v>1</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
@@ -1422,7 +1423,7 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2">
         <v>0.5</v>
@@ -1438,19 +1439,19 @@
         <v>2</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.15">
@@ -1458,7 +1459,7 @@
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2">
         <v>0.3</v>
@@ -1468,13 +1469,13 @@
         <v>3</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="33" x14ac:dyDescent="0.15">
@@ -1482,7 +1483,7 @@
         <v>103</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -1491,13 +1492,13 @@
       </c>
       <c r="F8" s="4"/>
       <c r="M8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
@@ -1505,7 +1506,7 @@
         <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2">
         <v>0.7</v>
@@ -1515,7 +1516,7 @@
         <v>5</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.15">

--- a/Config/test.xlsx
+++ b/Config/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tabtoy\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D7EB07-5BAC-4D3C-86E1-96C1687B9552}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DE7018-F59C-469D-A2DA-32C7A37F0C5F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1815" windowWidth="25185" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2220" yWindow="2070" windowWidth="25185" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -151,12 +151,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="84">
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>Name</t>
   </si>
   <si>
     <t>IconID</t>
@@ -491,10 +488,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>float</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>技能比率</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -535,11 +528,19 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试用表格 C= S=lua</t>
+    <t>Name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>string|C</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>float|S</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用表格 C=lua S=lua</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1136,7 +1137,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1162,19 +1165,19 @@
         <v>83</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -1182,124 +1185,124 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K2" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="R2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
@@ -1307,61 +1310,61 @@
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="K4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
@@ -1369,10 +1372,10 @@
         <v>100</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="E5" s="2">
         <v>0.1</v>
@@ -1382,40 +1385,40 @@
         <v>10</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M5" s="2">
         <v>1</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
@@ -1423,7 +1426,7 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2">
         <v>0.5</v>
@@ -1439,19 +1442,19 @@
         <v>2</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.15">
@@ -1459,7 +1462,7 @@
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2">
         <v>0.3</v>
@@ -1469,13 +1472,13 @@
         <v>3</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="33" x14ac:dyDescent="0.15">
@@ -1483,7 +1486,7 @@
         <v>103</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -1492,13 +1495,13 @@
       </c>
       <c r="F8" s="4"/>
       <c r="M8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
@@ -1506,7 +1509,7 @@
         <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2">
         <v>0.7</v>
@@ -1516,7 +1519,7 @@
         <v>5</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.15">
